--- a/Data/aearep-1453/candidatepackages.xlsx
+++ b/Data/aearep-1453/candidatepackages.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
     <t>diff</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>index</t>
   </si>
   <si>
     <t>Package popularity (rank out of total # of packages)</t>
@@ -43,19 +37,10 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-1453/124701/0_Raw/Lifequotes</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1453/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>lifequotes.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -99,7 +84,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -107,13 +92,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -121,36 +106,12 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>267</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>985</v>
-      </c>
-      <c r="C4">
-        <v>0.32659152150154114</v>
-      </c>
-      <c r="D4"/>
     </row>
   </sheetData>
 </worksheet>
@@ -158,39 +119,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
